--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,14 +247,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
+    <col min="5" max="5" width="15.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="14.64453125" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2971734795453399</v>
+        <v>0.29709854136322567</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.33059775810561326</v>
+        <v>0.33062244563092913</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0030034257349580858</v>
+        <v>0.0030438001602629498</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0013969344284815123</v>
+        <v>-0.0014021649252704584</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00019532909557247252</v>
+        <v>-0.00020963998092435925</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0095009051212851647</v>
+        <v>0.0095543603729728206</v>
       </c>
       <c r="H3" s="0">
-        <v>0.00036456709641202999</v>
+        <v>0.00036541805271730953</v>
       </c>
       <c r="I3" s="0">
-        <v>0.023140484046591938</v>
+        <v>0.023164970937489839</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00099283991491988521</v>
+        <v>-0.00099284034954461031</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.33172012574463711</v>
+        <v>0.33117442231183869</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0045311837154766825</v>
+        <v>-0.005125543865749066</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-3.8582716119239081e-05</v>
+        <v>-2.9146367000719994e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00079218874014580476</v>
+        <v>-0.000784837835961609</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00023090953852908722</v>
+        <v>0.00023098125196061218</v>
       </c>
       <c r="I4" s="0">
-        <v>0.018893787764120918</v>
+        <v>0.01885046545394075</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.012890796276219</v>
+        <v>-0.012840360626762913</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00025042178433454243</v>
+        <v>0.00025041867048247735</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28904015332185573</v>
+        <v>0.28966893304103769</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.024803610361287198</v>
+        <v>-0.023477831965147258</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.010644332405430227</v>
+        <v>-0.010728351226332082</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0020851191038203771</v>
+        <v>-0.0021349455197368556</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00053921800143297933</v>
+        <v>0.00051170828875677157</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.021096776698685558</v>
+        <v>-0.021087488531141771</v>
       </c>
       <c r="H5" s="0">
-        <v>0.00056846987493844466</v>
+        <v>0.0005681892815415973</v>
       </c>
       <c r="I5" s="0">
-        <v>0.012453404584822669</v>
+        <v>0.012454465131502203</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0023887736852478691</v>
+        <v>0.0023887652697563988</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.46643410930927498</v>
+        <v>0.46856888134199209</v>
       </c>
       <c r="C6" s="0">
-        <v>0.1751479876515103</v>
+        <v>0.17755516705908869</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00655708533266072</v>
+        <v>0.0065574170035253712</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.00096967493947992323</v>
+        <v>-0.00096532528568271506</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00051628566883898637</v>
+        <v>0.00052875320353447082</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.017484414999259679</v>
+        <v>-0.018402685053069644</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.013626687273148863</v>
+        <v>0.01362662137355819</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.46797388889583491</v>
+        <v>0.46872320259272643</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0066902978285580585</v>
+        <v>-0.0078615843573403774</v>
       </c>
       <c r="E7" s="0">
-        <v>0.00226805636866111</v>
+        <v>0.0021598879453898381</v>
       </c>
       <c r="F7" s="0">
-        <v>0.00069036315172461751</v>
+        <v>0.00057449854748437652</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0012742379207159975</v>
+        <v>0.00129920767633342</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0014986286174478295</v>
+        <v>-0.0015137631739424043</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0054960485914640755</v>
+        <v>0.0054960746128094873</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.48694446587096379</v>
+        <v>0.48816075435993178</v>
       </c>
       <c r="C8" s="0">
-        <v>0.055954666741273723</v>
+        <v>0.055670379043488032</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.010694348196757719</v>
+        <v>-0.010654414368616172</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.018225730927444349</v>
+        <v>-0.018214597016723569</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>0.00011742295484044475</v>
+        <v>0.00011848456575567823</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.013500609337705435</v>
+        <v>-0.012801524768589182</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0053191757409222218</v>
+        <v>0.0053192243118905802</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.11167651009127225</v>
+        <v>0.11031598546064891</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.2792130303845507</v>
+        <v>-0.28155991367988059</v>
       </c>
       <c r="E9" s="0">
-        <v>0.016117763364831734</v>
+        <v>0.016213041319337599</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.067306469971148211</v>
+        <v>-0.067825131685867235</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.042559805592718311</v>
+        <v>-0.042338439166350314</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0029042094458281154</v>
+        <v>-0.0029286853241497816</v>
       </c>
       <c r="I9" s="0">
-        <v>0.00099472964923681467</v>
+        <v>0.0009912560505876823</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00039693339951479834</v>
+        <v>-0.00039689641296020151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.13297482059447802</v>
+        <v>0.13533364330204709</v>
       </c>
       <c r="C10" s="0">
-        <v>0.01237237791398807</v>
+        <v>0.016319618193590665</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.005369824666910078</v>
+        <v>0.0053743168987946989</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0063529110539643314</v>
+        <v>-0.0063772385943842089</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00085364299826741377</v>
+        <v>-0.00085379975121073861</v>
       </c>
       <c r="I10" s="0">
-        <v>0.029039415489545767</v>
+        <v>0.028827708610119178</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0018703067399833278</v>
+        <v>-0.001866641060319452</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.016406446775023065</v>
+        <v>-0.016406306455191977</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.35584360514414731</v>
+        <v>0.35863962355102252</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.38872488434876662</v>
+        <v>0.38832920448094133</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.034598509841556414</v>
+        <v>-0.034566561302180748</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.031320186269812984</v>
+        <v>-0.030448521635134396</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.057727797973378819</v>
+        <v>-0.057458722341774085</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0047689683441352734</v>
+        <v>-0.0047435493307956995</v>
       </c>
       <c r="I11" s="0">
-        <v>0.043849452993807859</v>
+        <v>0.043484208099153911</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.081290090364021683</v>
+        <v>-0.081290077721234894</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.35419746423945359</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.03279689678936154</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.0062880362889653077</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.002179940370633317</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00078220666027488471</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.02853893168935347</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>0.00055005890829651349</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,63 +388,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.24609375" customWidth="true"/>
+    <col min="4" max="4" width="14.64453125" customWidth="true"/>
+    <col min="5" max="5" width="15.77734375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="14.64453125" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="15.64453125" customWidth="true"/>
-    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="10" max="10" width="15.24609375" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29709854136322567</v>
+        <v>0.295862261554385</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.33062244563092913</v>
+        <v>0.329486708175317</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0030438001602629498</v>
+        <v>0.0030631205987112298</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0014021649252704584</v>
+        <v>-0.0013952877841313821</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00020963998092435925</v>
+        <v>-0.00020189089864021544</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0095543603729728206</v>
+        <v>0.0095801606925312779</v>
       </c>
       <c r="H3" s="0">
-        <v>0.00036541805271730953</v>
+        <v>0.00036625298597203678</v>
       </c>
       <c r="I3" s="0">
-        <v>0.023164970937489839</v>
+        <v>0.023204933684576337</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00099284034954461031</v>
+        <v>-0.00099284265808730066</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.33117442231183869</v>
+        <v>0.331753257809274</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.005125543865749066</v>
+        <v>-0.0041039085824269416</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-2.9146367000719994e-05</v>
+        <v>-3.0567353772105768e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.000784837835961609</v>
+        <v>-0.00078661325178240441</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00023098125196061218</v>
+        <v>0.00023332712479235979</v>
       </c>
       <c r="I4" s="0">
-        <v>0.01885046545394075</v>
+        <v>0.019512461773460742</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.012840360626762913</v>
+        <v>-0.012808526432177957</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00025041867048247735</v>
+        <v>0.0002503763558633354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28966893304103769</v>
+        <v>0.29001064432288048</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.023477831965147258</v>
+        <v>-0.024332779202550885</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.010728351226332082</v>
+        <v>-0.010460238373199055</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0021349455197368556</v>
+        <v>-0.0020821083091991858</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00051170828875677157</v>
+        <v>0.00083003119542837678</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.021087488531141771</v>
+        <v>-0.021130549846084999</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0005681892815415973</v>
+        <v>0.00056329788062075875</v>
       </c>
       <c r="I5" s="0">
-        <v>0.012454465131502203</v>
+        <v>0.012480968311796329</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0023887652697563988</v>
+        <v>0.0023887648567951225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.46856888134199209</v>
+        <v>0.46859846417923384</v>
       </c>
       <c r="C6" s="0">
-        <v>0.17755516705908869</v>
+        <v>0.17794630449984741</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0065574170035253712</v>
+        <v>0.0065758863200625749</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.00096532528568271506</v>
+        <v>-0.00096036659283845675</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00052875320353447082</v>
+        <v>0.00055101229119479758</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.018402685053069644</v>
+        <v>-0.01915166817297103</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.01362662137355819</v>
+        <v>0.013626651511058074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.46872320259272643</v>
+        <v>0.46968142992667117</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0078615843573403774</v>
+        <v>-0.0065846148098223992</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0021598879453898381</v>
+        <v>0.0020234069539686217</v>
       </c>
       <c r="F7" s="0">
-        <v>0.00057449854748437652</v>
+        <v>0.00039294159001291564</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00129920767633342</v>
+        <v>0.0012686954511247316</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0015137631739424043</v>
+        <v>-0.0015135146843499292</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0054960746128094873</v>
+        <v>0.0054960512465033751</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.48816075435993178</v>
+        <v>0.47688934761322865</v>
       </c>
       <c r="C8" s="0">
-        <v>0.055670379043488032</v>
+        <v>0.042790460031928837</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.010654414368616172</v>
+        <v>-0.010698311165503172</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.018214597016723569</v>
+        <v>-0.018237859927355771</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>0.00011848456575567823</v>
+        <v>0.00011535768826738364</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.012801524768589182</v>
+        <v>-0.012081074053008478</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0053192243118905802</v>
+        <v>0.0053193451122287017</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.11031598546064891</v>
+        <v>0.10203552484104916</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.28155991367988059</v>
+        <v>-0.27863531303722194</v>
       </c>
       <c r="E9" s="0">
-        <v>0.016213041319337599</v>
+        <v>0.01626007957984223</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.067825131685867235</v>
+        <v>-0.067509138560808701</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.042338439166350314</v>
+        <v>-0.042600870672599517</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0029286853241497816</v>
+        <v>-0.0029614141488291598</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0009912560505876823</v>
+        <v>0.00098980306483073262</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00039689641296020151</v>
+        <v>-0.00039696899739311009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.13533364330204709</v>
+        <v>0.12639242984605201</v>
       </c>
       <c r="C10" s="0">
-        <v>0.016319618193590665</v>
+        <v>0.015051865737573611</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0053743168987946989</v>
+        <v>0.0054434897616970537</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0063772385943842089</v>
+        <v>-0.0062857667176187768</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00085379975121073861</v>
+        <v>-0.00085420086768732732</v>
       </c>
       <c r="I10" s="0">
-        <v>0.028827708610119178</v>
+        <v>0.029208803330397173</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.001866641060319452</v>
+        <v>-0.0018009037379275344</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.016406306455191977</v>
+        <v>-0.016406382501431366</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.35863962355102252</v>
+        <v>0.35657989192244344</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.38832920448094133</v>
+        <v>0.39250877905997916</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.034566561302180748</v>
+        <v>-0.034597837476165232</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.030448521635134396</v>
+        <v>-0.028120165639908636</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.057458722341774085</v>
+        <v>-0.058003823738784099</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0047435493307956995</v>
+        <v>-0.0046884386989278354</v>
       </c>
       <c r="I11" s="0">
-        <v>0.043484208099153911</v>
+        <v>0.044379091245211472</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.081290077721234894</v>
+        <v>-0.08129014267501336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.35419746423945359</v>
+        <v>0.25283636024366257</v>
       </c>
       <c r="C12" s="0">
-        <v>0.03279689678936154</v>
+        <v>0.012432005423824145</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.0062880362889653077</v>
+        <v>-0.013654145618819034</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.002179940370633317</v>
+        <v>-0.026996737193163315</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00078220666027488471</v>
+        <v>-0.0068836460120722271</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.02853893168935347</v>
+        <v>-0.071773842378291638</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0.00055005890829651349</v>
+        <v>0.0031328340997411885</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.38187911366881411</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.27611461495487138</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0066881107186483471</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.14770546101949747</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.00988364547891055</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0053775458541723718</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.0033901369647032892</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.25866003323131853</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.26942707556288514</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.060587160031044689</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.0069420750766145643</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.0077140777358908367</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-0.00054850581886485865</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.049825388700784928</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00071898089595823222</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.295862261554385</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.329486708175317</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.331753257809274</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.29001064432288048</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.46859846417923384</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.46968142992667117</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.47688934761322865</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.10203552484104916</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.12639242984605201</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.35657989192244344</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.25283636024366257</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.38187911366881411</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.26942707556288514</v>
+        <v>0.27010217584474894</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.060587160031044689</v>
+        <v>-0.043829538281301601</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>0.0069420750766145643</v>
+        <v>0.009684592141993879</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0077140777358908367</v>
+        <v>-0.0096189827518616353</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.00054850581886485865</v>
+        <v>-0.0040768033125886671</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.049825388700784928</v>
+        <v>-0.05998174631596552</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00071898089595823222</v>
+        <v>-0.0039544593043416287</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.22959542780429615</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.37830948178532497</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.023420894017634818</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.047719294156815972</v>
+      </c>
+      <c r="G15" s="0">
+        <v>-0.0043554505987817398</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.18817285943938916</v>
       </c>
     </row>
   </sheetData>
